--- a/data/bleachingdata_2020_analysis/KI_partialmortality_2016a.xlsx
+++ b/data/bleachingdata_2020_analysis/KI_partialmortality_2016a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KristinaTietjen/Documents/Git_Hub/KI_Platy/data/bleachingdata_2020_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samstarko/Dropbox/R projects/KI_Platy/data/bleachingdata_2020_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24596B73-9F72-444D-984B-E77180B40DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD4137B-3CEB-804B-8F45-14F195C92E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="-20120" windowWidth="27640" windowHeight="16540" xr2:uid="{58A65E0C-CB26-744D-AE98-E2E5847C3948}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{58A65E0C-CB26-744D-AE98-E2E5847C3948}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="26">
   <si>
     <t>KI2016a</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>fpenta</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>startingGenus_symbio</t>
   </si>
 </sst>
 </file>
@@ -455,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC908B0-7392-DC48-8C56-FA87F82E293C}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -488,8 +503,11 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -511,8 +529,11 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -534,8 +555,11 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -560,8 +584,11 @@
       <c r="H4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -586,8 +613,11 @@
       <c r="H5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -609,8 +639,11 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -635,8 +668,11 @@
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -661,8 +697,11 @@
       <c r="H8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -687,8 +726,11 @@
       <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -713,8 +755,11 @@
       <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -739,8 +784,11 @@
       <c r="H11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -762,8 +810,11 @@
       <c r="G12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -788,8 +839,11 @@
       <c r="H13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -814,8 +868,11 @@
       <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -837,8 +894,11 @@
       <c r="G15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -860,8 +920,11 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -886,8 +949,11 @@
       <c r="H17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -912,8 +978,11 @@
       <c r="H18" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -938,8 +1007,11 @@
       <c r="H19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -964,8 +1036,11 @@
       <c r="H20" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1065,11 @@
       <c r="H21" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1013,8 +1091,11 @@
       <c r="G22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1036,8 +1117,11 @@
       <c r="G23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1062,8 +1146,11 @@
       <c r="H24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,8 +1175,11 @@
       <c r="H25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1113,6 +1203,9 @@
       </c>
       <c r="H26" t="s">
         <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
